--- a/APPENDIX DATA.xlsx
+++ b/APPENDIX DATA.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Desktop/UNI/Y3/HSBC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F39BF85-69C9-4043-A872-7C30E150B33E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D3041B-9648-E547-BCE9-93528591D9A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Alternatives" sheetId="1" r:id="rId1"/>
     <sheet name="Appendix " sheetId="2" r:id="rId2"/>
-    <sheet name="ReturnData" sheetId="3" r:id="rId3"/>
+    <sheet name="Funds" sheetId="4" r:id="rId3"/>
+    <sheet name="ReturnData" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="154">
   <si>
     <t>Appendix D: High Conviction Fund List</t>
   </si>
@@ -479,13 +480,34 @@
   </si>
   <si>
     <t>Security</t>
+  </si>
+  <si>
+    <t>Pictet Japanese Equity Opportunities EUR(H)</t>
+  </si>
+  <si>
+    <t>Asset Class </t>
+  </si>
+  <si>
+    <t>Fund Type</t>
+  </si>
+  <si>
+    <t>Advanced Ratio </t>
+  </si>
+  <si>
+    <t>Beta</t>
+  </si>
+  <si>
+    <t>CAPM</t>
+  </si>
+  <si>
+    <t>Fund</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -598,6 +620,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -695,7 +725,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -734,6 +764,8 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -963,7 +995,9 @@
   </sheetPr>
   <dimension ref="A1:K72"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -1915,7 +1949,9 @@
   </sheetPr>
   <dimension ref="A1:Y999"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -6191,13 +6227,1615 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4C2DA5B-98AD-F549-ABC3-D1EC9E9B0836}">
+  <dimension ref="A1:G69"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="G1" s="33" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="24">
+        <v>80</v>
+      </c>
+      <c r="F2" s="24">
+        <v>1.01</v>
+      </c>
+      <c r="G2" s="24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="24">
+        <v>80</v>
+      </c>
+      <c r="F3" s="24">
+        <v>1.21</v>
+      </c>
+      <c r="G3" s="24">
+        <v>11.19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="24">
+        <v>80</v>
+      </c>
+      <c r="F4" s="24">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="G4" s="24">
+        <v>10.65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="24">
+        <v>70</v>
+      </c>
+      <c r="F5" s="24">
+        <v>0.61</v>
+      </c>
+      <c r="G5" s="24">
+        <v>7.62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="24">
+        <v>70</v>
+      </c>
+      <c r="F6" s="24">
+        <v>0.99</v>
+      </c>
+      <c r="G6" s="24">
+        <v>9.8800000000000008</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="24">
+        <v>60</v>
+      </c>
+      <c r="F7" s="24">
+        <v>0.77</v>
+      </c>
+      <c r="G7" s="24">
+        <v>8.57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="24">
+        <v>70</v>
+      </c>
+      <c r="F8" s="24">
+        <v>0.8</v>
+      </c>
+      <c r="G8" s="24">
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="24">
+        <v>60</v>
+      </c>
+      <c r="F9" s="24">
+        <v>0.98</v>
+      </c>
+      <c r="G9" s="24">
+        <v>9.82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="24">
+        <v>80</v>
+      </c>
+      <c r="F10" s="24">
+        <v>0.71</v>
+      </c>
+      <c r="G10" s="24">
+        <v>8.2200000000000006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="24">
+        <v>70</v>
+      </c>
+      <c r="F11" s="24">
+        <v>0.78</v>
+      </c>
+      <c r="G11" s="24">
+        <v>8.6300000000000008</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="24">
+        <v>80</v>
+      </c>
+      <c r="F12" s="24">
+        <v>0.89</v>
+      </c>
+      <c r="G12" s="24">
+        <v>9.2899999999999991</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="24">
+        <v>80</v>
+      </c>
+      <c r="F13" s="24">
+        <v>0.93</v>
+      </c>
+      <c r="G13" s="24">
+        <v>9.52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="24">
+        <v>75</v>
+      </c>
+      <c r="F14" s="24">
+        <v>0.85</v>
+      </c>
+      <c r="G14" s="24">
+        <v>9.0500000000000007</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="24">
+        <v>70</v>
+      </c>
+      <c r="F15" s="24">
+        <v>1.08</v>
+      </c>
+      <c r="G15" s="24">
+        <v>10.42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="24">
+        <v>80</v>
+      </c>
+      <c r="F16" s="24">
+        <v>-3.6999999999999999E-4</v>
+      </c>
+      <c r="G16" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="24">
+        <v>70</v>
+      </c>
+      <c r="F17" s="24">
+        <v>0.87</v>
+      </c>
+      <c r="G17" s="24">
+        <v>9.17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="24">
+        <v>80</v>
+      </c>
+      <c r="F18" s="24">
+        <v>0.89</v>
+      </c>
+      <c r="G18" s="24">
+        <v>9.2899999999999991</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" s="24">
+        <v>75</v>
+      </c>
+      <c r="F19" s="24">
+        <v>1.19</v>
+      </c>
+      <c r="G19" s="24">
+        <v>11.07</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="24">
+        <v>70</v>
+      </c>
+      <c r="F20" s="24">
+        <v>2.7E-2</v>
+      </c>
+      <c r="G20" s="24">
+        <v>4.16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="24">
+        <v>70</v>
+      </c>
+      <c r="F21" s="24">
+        <v>1.02</v>
+      </c>
+      <c r="G21" s="24">
+        <v>10.06</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" s="24">
+        <v>90</v>
+      </c>
+      <c r="F22" s="24">
+        <v>0.79</v>
+      </c>
+      <c r="G22" s="24">
+        <v>8.69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="24">
+        <v>90</v>
+      </c>
+      <c r="F23" s="24">
+        <v>0.22</v>
+      </c>
+      <c r="G23" s="24">
+        <v>5.32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" s="24">
+        <v>90</v>
+      </c>
+      <c r="F24" s="24">
+        <v>-7.8999999999999996E-5</v>
+      </c>
+      <c r="G24" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="24">
+        <v>70</v>
+      </c>
+      <c r="F25" s="24">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="G25" s="24">
+        <v>10.77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="24">
+        <v>70</v>
+      </c>
+      <c r="F26" s="24">
+        <v>0.79</v>
+      </c>
+      <c r="G26" s="24">
+        <v>8.69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="24">
+        <v>70</v>
+      </c>
+      <c r="F27" s="24">
+        <v>0.81</v>
+      </c>
+      <c r="G27" s="24">
+        <v>8.81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="24">
+        <v>70</v>
+      </c>
+      <c r="F28" s="24">
+        <v>0.71</v>
+      </c>
+      <c r="G28" s="24">
+        <v>8.2200000000000006</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="E29" s="24">
+        <v>70</v>
+      </c>
+      <c r="F29" s="24">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G29" s="24">
+        <v>10.53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" s="24">
+        <v>70</v>
+      </c>
+      <c r="F30" s="24">
+        <v>-5.9999999999999995E-4</v>
+      </c>
+      <c r="G30" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="E31" s="24">
+        <v>70</v>
+      </c>
+      <c r="F31" s="24">
+        <v>1.26</v>
+      </c>
+      <c r="G31" s="24">
+        <v>11.51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B32" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D32" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" s="24">
+        <v>70</v>
+      </c>
+      <c r="F32" s="24">
+        <v>0.93</v>
+      </c>
+      <c r="G32" s="24">
+        <v>9.52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" s="24">
+        <v>70</v>
+      </c>
+      <c r="F33" s="24">
+        <v>0.96</v>
+      </c>
+      <c r="G33" s="24">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B34" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" s="24">
+        <v>70</v>
+      </c>
+      <c r="F34" s="24">
+        <v>1</v>
+      </c>
+      <c r="G34" s="24">
+        <v>9.94</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B35" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D35" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" s="24">
+        <v>70</v>
+      </c>
+      <c r="F35" s="24">
+        <v>1.05</v>
+      </c>
+      <c r="G35" s="24">
+        <v>10.24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D36" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36" s="24">
+        <v>70</v>
+      </c>
+      <c r="F36" s="24">
+        <v>1.06</v>
+      </c>
+      <c r="G36" s="24">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D37" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37" s="24">
+        <v>70</v>
+      </c>
+      <c r="F37" s="24">
+        <v>1</v>
+      </c>
+      <c r="G37" s="24">
+        <v>9.94</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="B38" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C38" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="D38" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" s="24">
+        <v>75</v>
+      </c>
+      <c r="F38" s="24">
+        <v>0.89</v>
+      </c>
+      <c r="G38" s="24">
+        <v>9.2899999999999991</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="B39" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C39" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="D39" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" s="24">
+        <v>70</v>
+      </c>
+      <c r="F39" s="24">
+        <v>0.81</v>
+      </c>
+      <c r="G39" s="24">
+        <v>8.81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="B40" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D40" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40" s="24">
+        <v>70</v>
+      </c>
+      <c r="F40" s="24">
+        <v>0.76</v>
+      </c>
+      <c r="G40" s="24">
+        <v>8.51</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="B41" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D41" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E41" s="24">
+        <v>70</v>
+      </c>
+      <c r="F41" s="24">
+        <v>0.99</v>
+      </c>
+      <c r="G41" s="24">
+        <v>9.8800000000000008</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="B42" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D42" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E42" s="24">
+        <v>70</v>
+      </c>
+      <c r="F42" s="24">
+        <v>0.73</v>
+      </c>
+      <c r="G42" s="24">
+        <v>8.34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="B43" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D43" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43" s="24">
+        <v>70</v>
+      </c>
+      <c r="F43" s="24">
+        <v>0.77</v>
+      </c>
+      <c r="G43" s="24">
+        <v>8.57</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="B44" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D44" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E44" s="24">
+        <v>70</v>
+      </c>
+      <c r="F44" s="24">
+        <v>0.95</v>
+      </c>
+      <c r="G44" s="24">
+        <v>9.64</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="B45" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D45" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E45" s="24">
+        <v>70</v>
+      </c>
+      <c r="F45" s="24">
+        <v>1.02</v>
+      </c>
+      <c r="G45" s="24">
+        <v>10.06</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="B46" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D46" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E46" s="24">
+        <v>70</v>
+      </c>
+      <c r="F46" s="24">
+        <v>0.82</v>
+      </c>
+      <c r="G46" s="24">
+        <v>8.8699999999999992</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="B47" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D47" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E47" s="24">
+        <v>70</v>
+      </c>
+      <c r="F47" s="24">
+        <v>0.85</v>
+      </c>
+      <c r="G47" s="24">
+        <v>9.0500000000000007</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="B48" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D48" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E48" s="24">
+        <v>70</v>
+      </c>
+      <c r="F48" s="24">
+        <v>0.91</v>
+      </c>
+      <c r="G48" s="24">
+        <v>9.41</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="B49" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D49" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E49" s="24">
+        <v>70</v>
+      </c>
+      <c r="F49" s="24">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="G49" s="24">
+        <v>10.71</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="B50" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D50" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E50" s="24">
+        <v>70</v>
+      </c>
+      <c r="F50" s="24">
+        <v>0.75</v>
+      </c>
+      <c r="G50" s="24">
+        <v>8.4600000000000009</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="B51" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D51" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E51" s="24">
+        <v>70</v>
+      </c>
+      <c r="F51" s="24">
+        <v>0.94</v>
+      </c>
+      <c r="G51" s="24">
+        <v>9.58</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="B52" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D52" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E52" s="24">
+        <v>70</v>
+      </c>
+      <c r="F52" s="24">
+        <v>1.02</v>
+      </c>
+      <c r="G52" s="24">
+        <v>10.06</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="B53" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D53" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E53" s="24">
+        <v>60</v>
+      </c>
+      <c r="F53" s="24">
+        <v>1.04</v>
+      </c>
+      <c r="G53" s="24">
+        <v>10.18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="B54" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D54" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E54" s="24">
+        <v>70</v>
+      </c>
+      <c r="F54" s="24">
+        <v>0.85</v>
+      </c>
+      <c r="G54" s="24">
+        <v>9.0500000000000007</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="B55" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D55" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E55" s="24">
+        <v>70</v>
+      </c>
+      <c r="F55" s="24">
+        <v>0.89</v>
+      </c>
+      <c r="G55" s="24">
+        <v>9.2899999999999991</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="B56" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D56" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E56" s="24">
+        <v>70</v>
+      </c>
+      <c r="F56" s="24">
+        <v>0.96</v>
+      </c>
+      <c r="G56" s="24">
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="B57" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D57" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E57" s="24">
+        <v>70</v>
+      </c>
+      <c r="F57" s="24">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="G57" s="24">
+        <v>4.0199999999999996</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="B58" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D58" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E58" s="24">
+        <v>70</v>
+      </c>
+      <c r="F58" s="24">
+        <v>0.73</v>
+      </c>
+      <c r="G58" s="24">
+        <v>8.34</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="B59" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D59" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E59" s="24">
+        <v>70</v>
+      </c>
+      <c r="F59" s="24">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="G59" s="24">
+        <v>10.59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="B60" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D60" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E60" s="24">
+        <v>50</v>
+      </c>
+      <c r="F60" s="7">
+        <v>0.36</v>
+      </c>
+      <c r="G60" s="24">
+        <v>6.14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="B61" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D61" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E61" s="24">
+        <v>50</v>
+      </c>
+      <c r="F61" s="7">
+        <v>0.06</v>
+      </c>
+      <c r="G61" s="24">
+        <v>4.3600000000000003</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="B62" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D62" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E62" s="24">
+        <v>50</v>
+      </c>
+      <c r="F62" s="7">
+        <v>0.47</v>
+      </c>
+      <c r="G62" s="24">
+        <v>6.79</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="B63" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D63" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E63" s="24">
+        <v>50</v>
+      </c>
+      <c r="F63" s="7">
+        <v>0.39</v>
+      </c>
+      <c r="G63" s="24">
+        <v>6.32</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="B64" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D64" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E64" s="24">
+        <v>50</v>
+      </c>
+      <c r="F64" s="7">
+        <v>0.48</v>
+      </c>
+      <c r="G64" s="24">
+        <v>6.85</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="B65" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D65" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E65" s="24">
+        <v>50</v>
+      </c>
+      <c r="F65" s="7">
+        <v>0.36</v>
+      </c>
+      <c r="G65" s="24">
+        <v>6.14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="B66" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D66" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E66" s="24">
+        <v>50</v>
+      </c>
+      <c r="F66" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="G66" s="24">
+        <v>4.6500000000000004</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="B67" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D67" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E67" s="24">
+        <v>50</v>
+      </c>
+      <c r="F67" s="7">
+        <v>0.15</v>
+      </c>
+      <c r="G67" s="24">
+        <v>4.8899999999999997</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="B68" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D68" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E68" s="24">
+        <v>70</v>
+      </c>
+      <c r="F68" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="G68" s="24">
+        <v>4.6500000000000004</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="B69" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D69" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E69" s="24">
+        <v>70</v>
+      </c>
+      <c r="F69" s="7">
+        <v>0.11</v>
+      </c>
+      <c r="G69" s="24">
+        <v>4.6500000000000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>

--- a/APPENDIX DATA.xlsx
+++ b/APPENDIX DATA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/Desktop/UNI/Y3/HSBC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D3041B-9648-E547-BCE9-93528591D9A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD26F6E-A5C8-BB43-9FF7-AA7E11EF61EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15980" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="155">
   <si>
     <t>Appendix D: High Conviction Fund List</t>
   </si>
@@ -501,6 +501,9 @@
   </si>
   <si>
     <t>Fund</t>
+  </si>
+  <si>
+    <t>Sharpe Ratio</t>
   </si>
 </sst>
 </file>
@@ -6228,15 +6231,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4C2DA5B-98AD-F549-ABC3-D1EC9E9B0836}">
-  <dimension ref="A1:G69"/>
+  <dimension ref="A1:H59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="33" t="s">
         <v>148</v>
       </c>
@@ -6258,8 +6261,11 @@
       <c r="G1" s="33" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="33" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="24" t="s">
         <v>11</v>
       </c>
@@ -6281,8 +6287,11 @@
       <c r="G2" s="24">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="24">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="24" t="s">
         <v>11</v>
       </c>
@@ -6304,8 +6313,11 @@
       <c r="G3" s="24">
         <v>11.19</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="24">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="24" t="s">
         <v>11</v>
       </c>
@@ -6325,10 +6337,13 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="G4" s="24">
-        <v>10.65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>9.64</v>
+      </c>
+      <c r="H4" s="24">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="24" t="s">
         <v>11</v>
       </c>
@@ -6348,10 +6363,13 @@
         <v>0.61</v>
       </c>
       <c r="G5" s="24">
-        <v>7.62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>7.8</v>
+      </c>
+      <c r="H5" s="24">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="24" t="s">
         <v>11</v>
       </c>
@@ -6371,10 +6389,13 @@
         <v>0.99</v>
       </c>
       <c r="G6" s="24">
-        <v>9.8800000000000008</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>11.72</v>
+      </c>
+      <c r="H6" s="24">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="24" t="s">
         <v>11</v>
       </c>
@@ -6394,10 +6415,13 @@
         <v>0.77</v>
       </c>
       <c r="G7" s="24">
-        <v>8.57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>9.0500000000000007</v>
+      </c>
+      <c r="H7" s="24">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="24" t="s">
         <v>11</v>
       </c>
@@ -6417,10 +6441,13 @@
         <v>0.8</v>
       </c>
       <c r="G8" s="24">
-        <v>8.75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>8.8699999999999992</v>
+      </c>
+      <c r="H8" s="24">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="24" t="s">
         <v>11</v>
       </c>
@@ -6442,8 +6469,11 @@
       <c r="G9" s="24">
         <v>9.82</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" s="24">
+        <v>-1.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="24" t="s">
         <v>11</v>
       </c>
@@ -6463,10 +6493,13 @@
         <v>0.71</v>
       </c>
       <c r="G10" s="24">
-        <v>8.2200000000000006</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>8.93</v>
+      </c>
+      <c r="H10" s="24">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="24" t="s">
         <v>11</v>
       </c>
@@ -6488,8 +6521,11 @@
       <c r="G11" s="24">
         <v>8.6300000000000008</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11" s="24">
+        <v>-0.31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="24" t="s">
         <v>11</v>
       </c>
@@ -6509,10 +6545,13 @@
         <v>0.89</v>
       </c>
       <c r="G12" s="24">
-        <v>9.2899999999999991</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>9.82</v>
+      </c>
+      <c r="H12" s="24">
+        <v>-0.19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="24" t="s">
         <v>11</v>
       </c>
@@ -6532,10 +6571,13 @@
         <v>0.93</v>
       </c>
       <c r="G13" s="24">
-        <v>9.52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>9.2899999999999991</v>
+      </c>
+      <c r="H13" s="24">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="24" t="s">
         <v>11</v>
       </c>
@@ -6555,10 +6597,13 @@
         <v>0.85</v>
       </c>
       <c r="G14" s="24">
-        <v>9.0500000000000007</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>8.99</v>
+      </c>
+      <c r="H14" s="24">
+        <v>-0.04</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="24" t="s">
         <v>11</v>
       </c>
@@ -6578,10 +6623,13 @@
         <v>1.08</v>
       </c>
       <c r="G15" s="24">
-        <v>10.42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+        <v>10.71</v>
+      </c>
+      <c r="H15" s="24">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="24" t="s">
         <v>11</v>
       </c>
@@ -6603,8 +6651,11 @@
       <c r="G16" s="24">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16" s="24">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="24" t="s">
         <v>11</v>
       </c>
@@ -6624,10 +6675,13 @@
         <v>0.87</v>
       </c>
       <c r="G17" s="24">
-        <v>9.17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>8.0399999999999991</v>
+      </c>
+      <c r="H17" s="24">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="24" t="s">
         <v>11</v>
       </c>
@@ -6649,8 +6703,11 @@
       <c r="G18" s="24">
         <v>9.2899999999999991</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18" s="24">
+        <v>-1.98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="24" t="s">
         <v>11</v>
       </c>
@@ -6670,10 +6727,13 @@
         <v>1.19</v>
       </c>
       <c r="G19" s="24">
-        <v>11.07</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>9.17</v>
+      </c>
+      <c r="H19" s="24">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="24" t="s">
         <v>11</v>
       </c>
@@ -6695,8 +6755,11 @@
       <c r="G20" s="24">
         <v>4.16</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20" s="24">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="24" t="s">
         <v>11</v>
       </c>
@@ -6718,8 +6781,11 @@
       <c r="G21" s="24">
         <v>10.06</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="H21" s="24">
+        <v>-0.61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="24" t="s">
         <v>11</v>
       </c>
@@ -6739,10 +6805,13 @@
         <v>0.79</v>
       </c>
       <c r="G22" s="24">
-        <v>8.69</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>8.51</v>
+      </c>
+      <c r="H22" s="24">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="24" t="s">
         <v>11</v>
       </c>
@@ -6764,8 +6833,11 @@
       <c r="G23" s="24">
         <v>5.32</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23" s="24">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="24" t="s">
         <v>11</v>
       </c>
@@ -6787,8 +6859,11 @@
       <c r="G24" s="24">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="H24" s="24">
+        <v>-1.59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="24" t="s">
         <v>71</v>
       </c>
@@ -6808,10 +6883,13 @@
         <v>1.1399999999999999</v>
       </c>
       <c r="G25" s="24">
-        <v>10.77</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>10.53</v>
+      </c>
+      <c r="H25" s="24">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="24" t="s">
         <v>71</v>
       </c>
@@ -6831,10 +6909,13 @@
         <v>0.79</v>
       </c>
       <c r="G26" s="24">
-        <v>8.69</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>9.64</v>
+      </c>
+      <c r="H26" s="24">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="24" t="s">
         <v>71</v>
       </c>
@@ -6856,8 +6937,11 @@
       <c r="G27" s="24">
         <v>8.81</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27" s="24">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="24" t="s">
         <v>71</v>
       </c>
@@ -6877,10 +6961,13 @@
         <v>0.71</v>
       </c>
       <c r="G28" s="24">
-        <v>8.2200000000000006</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>9.0500000000000007</v>
+      </c>
+      <c r="H28" s="24">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="24" t="s">
         <v>71</v>
       </c>
@@ -6900,10 +6987,13 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="G29" s="24">
-        <v>10.53</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>10.18</v>
+      </c>
+      <c r="H29" s="24">
+        <v>0.22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="24" t="s">
         <v>71</v>
       </c>
@@ -6925,8 +7015,11 @@
       <c r="G30" s="24">
         <v>4</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="H30" s="24">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="24" t="s">
         <v>71</v>
       </c>
@@ -6948,8 +7041,11 @@
       <c r="G31" s="24">
         <v>11.51</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="H31" s="24">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="24" t="s">
         <v>71</v>
       </c>
@@ -6969,10 +7065,13 @@
         <v>0.93</v>
       </c>
       <c r="G32" s="24">
-        <v>9.52</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>9.82</v>
+      </c>
+      <c r="H32" s="24">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="24" t="s">
         <v>71</v>
       </c>
@@ -6992,10 +7091,13 @@
         <v>0.96</v>
       </c>
       <c r="G33" s="24">
-        <v>9.6999999999999993</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>9.35</v>
+      </c>
+      <c r="H33" s="24">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="24" t="s">
         <v>71</v>
       </c>
@@ -7015,10 +7117,13 @@
         <v>1</v>
       </c>
       <c r="G34" s="24">
-        <v>9.94</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>10.24</v>
+      </c>
+      <c r="H34" s="24">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="24" t="s">
         <v>71</v>
       </c>
@@ -7038,10 +7143,13 @@
         <v>1.05</v>
       </c>
       <c r="G35" s="24">
-        <v>10.24</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="H35" s="24">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="24" t="s">
         <v>71</v>
       </c>
@@ -7061,10 +7169,13 @@
         <v>1.06</v>
       </c>
       <c r="G36" s="24">
-        <v>10.3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>8.16</v>
+      </c>
+      <c r="H36" s="24">
+        <v>-0.11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="24" t="s">
         <v>71</v>
       </c>
@@ -7084,10 +7195,13 @@
         <v>1</v>
       </c>
       <c r="G37" s="24">
-        <v>9.94</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+        <v>10.24</v>
+      </c>
+      <c r="H37" s="24">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="24" t="s">
         <v>89</v>
       </c>
@@ -7107,10 +7221,13 @@
         <v>0.89</v>
       </c>
       <c r="G38" s="24">
-        <v>9.2899999999999991</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>9.35</v>
+      </c>
+      <c r="H38" s="24">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="24" t="s">
         <v>89</v>
       </c>
@@ -7130,10 +7247,13 @@
         <v>0.81</v>
       </c>
       <c r="G39" s="24">
-        <v>8.81</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>9.94</v>
+      </c>
+      <c r="H39" s="24">
+        <v>-0.05</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="24" t="s">
         <v>89</v>
       </c>
@@ -7153,10 +7273,13 @@
         <v>0.76</v>
       </c>
       <c r="G40" s="24">
-        <v>8.51</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>8.4</v>
+      </c>
+      <c r="H40" s="24">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="24" t="s">
         <v>89</v>
       </c>
@@ -7176,10 +7299,13 @@
         <v>0.99</v>
       </c>
       <c r="G41" s="24">
-        <v>9.8800000000000008</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>10.24</v>
+      </c>
+      <c r="H41" s="24">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="24" t="s">
         <v>89</v>
       </c>
@@ -7199,10 +7325,13 @@
         <v>0.73</v>
       </c>
       <c r="G42" s="24">
-        <v>8.34</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>11.13</v>
+      </c>
+      <c r="H42" s="24">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="24" t="s">
         <v>89</v>
       </c>
@@ -7222,10 +7351,13 @@
         <v>0.77</v>
       </c>
       <c r="G43" s="24">
-        <v>8.57</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="H43" s="24">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="24" t="s">
         <v>89</v>
       </c>
@@ -7245,10 +7377,13 @@
         <v>0.95</v>
       </c>
       <c r="G44" s="24">
-        <v>9.64</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="H44" s="24">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="24" t="s">
         <v>89</v>
       </c>
@@ -7268,10 +7403,13 @@
         <v>1.02</v>
       </c>
       <c r="G45" s="24">
-        <v>10.06</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+        <v>9.52</v>
+      </c>
+      <c r="H45" s="24">
+        <v>-0.02</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="24" t="s">
         <v>89</v>
       </c>
@@ -7291,10 +7429,13 @@
         <v>0.82</v>
       </c>
       <c r="G46" s="24">
-        <v>8.8699999999999992</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>9.8800000000000008</v>
+      </c>
+      <c r="H46" s="24">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="24" t="s">
         <v>89</v>
       </c>
@@ -7314,10 +7455,13 @@
         <v>0.85</v>
       </c>
       <c r="G47" s="24">
-        <v>9.0500000000000007</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>10.18</v>
+      </c>
+      <c r="H47" s="24">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="24" t="s">
         <v>89</v>
       </c>
@@ -7337,10 +7481,13 @@
         <v>0.91</v>
       </c>
       <c r="G48" s="24">
-        <v>9.41</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>10.06</v>
+      </c>
+      <c r="H48" s="24">
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="24" t="s">
         <v>89</v>
       </c>
@@ -7360,10 +7507,13 @@
         <v>1.1299999999999999</v>
       </c>
       <c r="G49" s="24">
-        <v>10.71</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>9.4600000000000009</v>
+      </c>
+      <c r="H49" s="24">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="24" t="s">
         <v>89</v>
       </c>
@@ -7383,10 +7533,13 @@
         <v>0.75</v>
       </c>
       <c r="G50" s="24">
-        <v>8.4600000000000009</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>8.99</v>
+      </c>
+      <c r="H50" s="24">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="24" t="s">
         <v>89</v>
       </c>
@@ -7406,10 +7559,13 @@
         <v>0.94</v>
       </c>
       <c r="G51" s="24">
-        <v>9.58</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>10.06</v>
+      </c>
+      <c r="H51" s="24">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="24" t="s">
         <v>89</v>
       </c>
@@ -7431,8 +7587,11 @@
       <c r="G52" s="24">
         <v>10.06</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52" s="24">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="24" t="s">
         <v>89</v>
       </c>
@@ -7454,8 +7613,11 @@
       <c r="G53" s="24">
         <v>10.18</v>
       </c>
-    </row>
-    <row r="54" spans="1:7">
+      <c r="H53" s="24">
+        <v>-0.45</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="24" t="s">
         <v>89</v>
       </c>
@@ -7475,10 +7637,13 @@
         <v>0.85</v>
       </c>
       <c r="G54" s="24">
-        <v>9.0500000000000007</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>7.21</v>
+      </c>
+      <c r="H54" s="24">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="24" t="s">
         <v>89</v>
       </c>
@@ -7498,10 +7663,13 @@
         <v>0.89</v>
       </c>
       <c r="G55" s="24">
-        <v>9.2899999999999991</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>9.94</v>
+      </c>
+      <c r="H55" s="24">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="24" t="s">
         <v>89</v>
       </c>
@@ -7521,10 +7689,13 @@
         <v>0.96</v>
       </c>
       <c r="G56" s="24">
-        <v>9.6999999999999993</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>8.2200000000000006</v>
+      </c>
+      <c r="H56" s="24">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="24" t="s">
         <v>89</v>
       </c>
@@ -7544,10 +7715,13 @@
         <v>3.3999999999999998E-3</v>
       </c>
       <c r="G57" s="24">
-        <v>4.0199999999999996</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>10.95</v>
+      </c>
+      <c r="H57" s="24">
+        <v>-0.77</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="24" t="s">
         <v>89</v>
       </c>
@@ -7569,8 +7743,11 @@
       <c r="G58" s="24">
         <v>8.34</v>
       </c>
-    </row>
-    <row r="59" spans="1:7">
+      <c r="H58" s="24">
+        <v>-0.82</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="24" t="s">
         <v>89</v>
       </c>
@@ -7592,239 +7769,13 @@
       <c r="G59" s="24">
         <v>10.59</v>
       </c>
-    </row>
-    <row r="60" spans="1:7">
-      <c r="A60" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="B60" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D60" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="E60" s="24">
-        <v>50</v>
-      </c>
-      <c r="F60" s="7">
-        <v>0.36</v>
-      </c>
-      <c r="G60" s="24">
-        <v>6.14</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="A61" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="B61" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D61" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="E61" s="24">
-        <v>50</v>
-      </c>
-      <c r="F61" s="7">
-        <v>0.06</v>
-      </c>
-      <c r="G61" s="24">
-        <v>4.3600000000000003</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="A62" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="B62" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D62" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="E62" s="24">
-        <v>50</v>
-      </c>
-      <c r="F62" s="7">
-        <v>0.47</v>
-      </c>
-      <c r="G62" s="24">
-        <v>6.79</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
-      <c r="A63" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="B63" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D63" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="E63" s="24">
-        <v>50</v>
-      </c>
-      <c r="F63" s="7">
-        <v>0.39</v>
-      </c>
-      <c r="G63" s="24">
-        <v>6.32</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="A64" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="B64" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D64" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="E64" s="24">
-        <v>50</v>
-      </c>
-      <c r="F64" s="7">
-        <v>0.48</v>
-      </c>
-      <c r="G64" s="24">
-        <v>6.85</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
-      <c r="A65" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="B65" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D65" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="E65" s="24">
-        <v>50</v>
-      </c>
-      <c r="F65" s="7">
-        <v>0.36</v>
-      </c>
-      <c r="G65" s="24">
-        <v>6.14</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
-      <c r="A66" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="B66" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="C66" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D66" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="E66" s="24">
-        <v>50</v>
-      </c>
-      <c r="F66" s="7">
-        <v>0.11</v>
-      </c>
-      <c r="G66" s="24">
-        <v>4.6500000000000004</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
-      <c r="A67" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="B67" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="C67" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D67" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="E67" s="24">
-        <v>50</v>
-      </c>
-      <c r="F67" s="7">
-        <v>0.15</v>
-      </c>
-      <c r="G67" s="24">
-        <v>4.8899999999999997</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
-      <c r="A68" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="B68" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="C68" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D68" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="E68" s="24">
-        <v>70</v>
-      </c>
-      <c r="F68" s="7">
-        <v>0.11</v>
-      </c>
-      <c r="G68" s="24">
-        <v>4.6500000000000004</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="A69" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="B69" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="C69" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="D69" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="E69" s="24">
-        <v>70</v>
-      </c>
-      <c r="F69" s="7">
-        <v>0.11</v>
-      </c>
-      <c r="G69" s="24">
-        <v>4.6500000000000004</v>
+      <c r="H59" s="24">
+        <v>-0.6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
